--- a/Docs/PCB_Clock_STM8.vProject_Version/Bill of Materials - PCB_Clock_STM8.vProject_Version.xlsx
+++ b/Docs/PCB_Clock_STM8.vProject_Version/Bill of Materials - PCB_Clock_STM8.vProject_Version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Clock_STM8\Docs\PCB_Clock_STM8.vProject_Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{879318C0-0AA2-4922-A566-8112FAA5753C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ED08DD9-E838-45D2-AEA6-D84FD13DB61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7A6533D-E379-4F14-A544-084F71B61A9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88C6A4D2-87B5-4A92-8E26-F24441AB4257}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials - PCB_Clock_S" sheetId="1" r:id="rId1"/>
@@ -777,7 +777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA9A068-5297-46A4-A0F2-69F81BD8BFE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86360EDC-55D8-4395-92F6-505ABE47D997}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
